--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Questionnaire co" r:id="rId4" sheetId="2"/>
-    <sheet name="Expansion" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -49,19 +48,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,49 +90,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>In a relationship, not married, living with partner</t>
-  </si>
-  <si>
-    <t>RNL</t>
-  </si>
-  <si>
-    <t>In a relationship, not married, not living with partner</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Separated</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Widowed</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -146,42 +103,6 @@
   </si>
   <si>
     <t>https://voicecollab.ai/fhir/CodeSystem/marital-status</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -377,60 +298,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -440,7 +359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,265 +371,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Questionnaire co" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Marital Status C" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/ValueSet-marital-status.xlsx
+++ b/vbai-fhir/ValueSet-marital-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
